--- a/CODIGOS.xlsx
+++ b/CODIGOS.xlsx
@@ -45,8 +45,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -445,10 +444,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:C349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -505,6 +504,2078 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2712</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4470</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4780</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5376</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5615</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6577</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8049</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8050</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8310</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8595</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8776</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8903</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9476</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11355</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11636</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11863</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>14971</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>15602</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>15837</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>16158</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>16456</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>16907</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17578</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17750</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17751</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17752</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17753</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17859</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18061</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>18194</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>18195</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>18331</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>18437</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19019</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20628</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20690</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20694</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>21019</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21334</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>021346CE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>21476</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22200</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23080</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>23341</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>23464</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>23820</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>24344</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>24414</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>024425CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>24876</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>24932</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>025037CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>025038CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>025039CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>025041CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>025061CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>025062CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>025063CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>025072CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>025105CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>25151</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>025162CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>025165CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>025167CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>025168CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>026027CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>26086</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>26087</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>026169CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>26244</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>026328ce</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>26501</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>26582</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>26583</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>026598CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>26670</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>027559CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>27595</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>27623</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>27630</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>27835</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>27953</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>28038</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>28876</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>028977CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>028978CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>29014</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>29414</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>29451</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>29454</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>029493CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>29504</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>29697</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>029912CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>29994</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>29995</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>30013</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>30016</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>30058</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>30188</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>30192</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>30274</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>30360</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>030474CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>30546</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>30668</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>30727</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>30900</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>031249CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>31328</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>31479</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>31506</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>31536</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>031588CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>31677</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>31681</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>31707</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>31713</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>31750</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>31752</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>31790</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>31795</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>31807</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>031912CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>31918</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>31920</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>32080</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>32109</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>32172</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>32177</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>032191CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>32229</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>32232</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>32259</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>32347</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>32455</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>032465CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>32634</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>32642</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>32646</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>32658</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>32683</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>32719</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>32813</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>32859</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>32875</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>32898</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>32985</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>32993</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>033027CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>33160</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>33164</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>33339</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>33423</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>033510CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>33566</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>33587</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>33621</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>33623</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>33699</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>33704</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>33705</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>033715CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>33745</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>33830</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>33850</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>33877</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>33878</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>33879</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>33884</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>34022</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>34053</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>34055</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>34164</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>34165</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>34166</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>34175</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>34185</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>34186</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>034188CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>34196</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>034222CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>34247</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>34486</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>34510</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>034521CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>34540</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>034590CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>034609CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>034610CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>34684</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>34733</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>34734</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>34821</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>034920CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>34975</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>34977</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>035016CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>35156</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>35247</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>35349</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>35351</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>35371</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>35526</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>035539CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>035551CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>035601CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>35634</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>35650</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>35656</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>35743</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>35744</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>35795</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>35796</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>35832</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>35870</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>35931</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>35967</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>036001CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>036042CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>36047</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>36156</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>36178</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>36317</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>36351</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>36436</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>036526CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>036527CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>036528CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>036529CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>36540</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>36566</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>36687</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>36696</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>36700</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>036702CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>36768</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>36781</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>36881</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>036926CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>037040CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>37063</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>37108</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>037119CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>037168CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>37174</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>37225</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>37236</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>37237</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>37248</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>037341CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>37365</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>37366</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>37386</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>37404</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>37405</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>37406</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>37407</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>37449</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>37450</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>37453</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>37455</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>37456</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>37457</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>37458</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>37459</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>37460</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>37471</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>37472</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>37473</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>37474</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>37481</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>37566</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>37576</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>37577</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>37579</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>37613</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>37614</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>37636</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>37699</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>37713</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>37714</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>37747</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>37748</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>37784</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>37811</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>37812</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>37884</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>37934</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>037943CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>37959</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>37960</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>37967</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>37999</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>38017</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>38025</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>38035</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>38036</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>38043</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>38047</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>38066</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>38067</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>38069</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>38070</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>038073CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>38080</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>38087</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>038205CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>38214</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>38249</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>38358</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>38391</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>38392</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>38403</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>38448</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>038469CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>38489</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>038522CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>038523CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>38531</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>38659</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>38661</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>038693CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>038699CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>38705</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>38754</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>38756</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>38823</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>38830</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>38855</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>038859CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>038860CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>038861CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>038864CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>38881</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>38884</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>038889CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>038898CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>038900CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>38932</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>38936</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>38938</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>38986</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>38995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/CODIGOS.xlsx
+++ b/CODIGOS.xlsx
@@ -930,36 +930,71 @@
       <c r="A48" t="n">
         <v>23080</v>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>23341</v>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>23464</v>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>23820</v>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>24344</v>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>24414</v>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
           <t>024425CE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>LIDO</t>
         </is>
       </c>
     </row>
@@ -967,11 +1002,21 @@
       <c r="A55" t="n">
         <v>24876</v>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>24932</v>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -979,6 +1024,11 @@
           <t>025037CE</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -986,6 +1036,11 @@
           <t>025038CE</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -993,6 +1048,11 @@
           <t>025039CE</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1000,6 +1060,11 @@
           <t>025041CE</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1007,6 +1072,11 @@
           <t>025061CE</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1014,6 +1084,11 @@
           <t>025062CE</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1021,6 +1096,11 @@
           <t>025063CE</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1028,11 +1108,21 @@
           <t>025072CE</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
           <t>025105CE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>LIDO</t>
         </is>
       </c>
     </row>
@@ -1040,6 +1130,11 @@
       <c r="A66" t="n">
         <v>25151</v>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1047,6 +1142,11 @@
           <t>025162CE</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1054,6 +1154,11 @@
           <t>025165CE</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1061,6 +1166,11 @@
           <t>025167CE</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1068,11 +1178,21 @@
           <t>025168CE</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
           <t>026027CE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>LIDO</t>
         </is>
       </c>
     </row>
@@ -1080,16 +1200,31 @@
       <c r="A72" t="n">
         <v>26086</v>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>26087</v>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
           <t>026169CE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>LIDO</t>
         </is>
       </c>
     </row>
@@ -1097,11 +1232,21 @@
       <c r="A75" t="n">
         <v>26244</v>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
           <t>026328ce</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>LIDO</t>
         </is>
       </c>
     </row>
@@ -1109,21 +1254,41 @@
       <c r="A77" t="n">
         <v>26501</v>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>26582</v>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>26583</v>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
           <t>026598CE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LIDO</t>
         </is>
       </c>
     </row>
@@ -1131,11 +1296,21 @@
       <c r="A81" t="n">
         <v>26670</v>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
           <t>027559CE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>LIDO</t>
         </is>
       </c>
     </row>
@@ -1143,36 +1318,71 @@
       <c r="A83" t="n">
         <v>27595</v>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>27623</v>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>27630</v>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>27835</v>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>27953</v>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>28038</v>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>28876</v>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1180,11 +1390,21 @@
           <t>028977CE</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
           <t>028978CE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>LIDO</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1412,62 @@
       <c r="A92" t="n">
         <v>29014</v>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>29414</v>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>29451</v>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>29454</v>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
           <t>029493CE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>LIDO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>29504</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>LIDO</t>
+        </is>
       </c>
     </row>
     <row r="98">
